--- a/lab3/lab3.xlsx
+++ b/lab3/lab3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Рабочий стол\Материалы\Академическая деятельность\Семестр №5\Параллельное программирование\Лабораторные работы\parallel-programming\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD45C173-2F17-41A8-897F-5B942F85C3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FABCB8-5352-46AF-A8E8-AF60C0C14A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{02C42F24-E85B-47EB-8A4E-18D1CCDE6578}"/>
   </bookViews>
